--- a/TradingThesis/figures/pairstradingdata.xlsx
+++ b/TradingThesis/figures/pairstradingdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlexT/Dropbox/SEN19R/FIRST/algorithmic-trading/TradingThesis/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14918080-3411-8A42-AD4E-CA10848F58A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD0A3C3-C10D-FB49-9E8A-82EB6D9C92C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30060" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,25 +171,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Pairs Trading Results</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -272,7 +254,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="34"/>
         <c:axId val="2075370280"/>
         <c:axId val="2075363336"/>
       </c:barChart>
@@ -290,10 +272,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" b="0"/>
                   <a:t>Stock Pairings</a:t>
                 </a:r>
               </a:p>
@@ -327,17 +309,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000"/>
-                  <a:t>Percentage difference</a:t>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Difference of strategy and baseline (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" baseline="0"/>
-                  <a:t> of strategy and baseline (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -360,6 +337,20 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
@@ -379,7 +370,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -733,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
